--- a/Data_preparation/datasets/final_data/NeuroOne_Medical_Technologies_Corporation.xlsx
+++ b/Data_preparation/datasets/final_data/NeuroOne_Medical_Technologies_Corporation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,72 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>4755 JP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -718,22 +652,22 @@
         <v>42551</v>
       </c>
       <c r="D2">
-        <v>17.48999977111816</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E2">
-        <v>18.72999954223633</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F2">
-        <v>18.8700008392334</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G2">
-        <v>16.79999923706055</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H2">
-        <v>168262866</v>
+        <v>49999519</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -768,22 +702,22 @@
         <v>42669</v>
       </c>
       <c r="D3">
-        <v>1179.321785622455</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E3">
-        <v>1093.526489257812</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F3">
-        <v>1189.985607769472</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G3">
-        <v>1081.408509545292</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H3">
-        <v>2165034529</v>
+        <v>49999519</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -830,22 +764,22 @@
         <v>42735</v>
       </c>
       <c r="D4">
-        <v>534.967198865167</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E4">
-        <v>450.4078674316406</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F4">
-        <v>571.2069123366783</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G4">
-        <v>445.230765507139</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H4">
-        <v>1333460157</v>
+        <v>49999519</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-247020</v>
@@ -907,22 +841,22 @@
         <v>42825</v>
       </c>
       <c r="D5">
-        <v>9.769573715804048</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E5">
-        <v>9.667807579040527</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F5">
-        <v>9.973106636344406</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G5">
-        <v>9.396430782995594</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H5">
-        <v>3006208000</v>
+        <v>49999519</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -972,22 +906,22 @@
         <v>42916</v>
       </c>
       <c r="D6">
-        <v>804.4902529480636</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E6">
-        <v>793.3997192382812</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F6">
-        <v>875.2990450951361</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G6">
-        <v>749.0375843991515</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H6">
-        <v>275900103</v>
+        <v>49999519</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>85330</v>
@@ -1055,22 +989,22 @@
         <v>43008</v>
       </c>
       <c r="D7">
-        <v>16.30785379979687</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E7">
-        <v>16.63021850585938</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F7">
-        <v>17.91335631168335</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G7">
-        <v>16.30785379979687</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H7">
-        <v>118401578</v>
+        <v>49999519</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>1593886</v>
@@ -1132,22 +1066,22 @@
         <v>43100</v>
       </c>
       <c r="D8">
-        <v>21.06097328157131</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="E8">
-        <v>21.5913028717041</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="F8">
-        <v>23.51893322585045</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G8">
-        <v>20.76122322733137</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="H8">
-        <v>1299391231</v>
+        <v>49999519</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2394873</v>
@@ -1215,22 +1149,22 @@
         <v>43190</v>
       </c>
       <c r="D9">
-        <v>15.95295863791121</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="E9">
-        <v>14.81924629211426</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="F9">
-        <v>16.27687689615273</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="G9">
-        <v>13.44259525263616</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="H9">
-        <v>4500000193</v>
+        <v>49999519</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>29965627</v>
@@ -1313,22 +1247,22 @@
         <v>43281</v>
       </c>
       <c r="D10">
-        <v>32.36709687656226</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="E10">
-        <v>31.62302398681641</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="F10">
-        <v>33.33438902755955</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="G10">
-        <v>30.02327147189045</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>1853869000</v>
+        <v>49999519</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>30857727</v>
@@ -1411,22 +1345,22 @@
         <v>43373</v>
       </c>
       <c r="D11">
-        <v>118.8699784743474</v>
+        <v>15.97500038146973</v>
       </c>
       <c r="E11">
-        <v>131.6345367431641</v>
+        <v>16.04100036621094</v>
       </c>
       <c r="F11">
-        <v>137.6179242105138</v>
+        <v>23.3700008392334</v>
       </c>
       <c r="G11">
-        <v>98.52645983921131</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>193969420</v>
+        <v>49999519</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>42554272</v>
@@ -1509,22 +1443,22 @@
         <v>43465</v>
       </c>
       <c r="D12">
-        <v>178.7038649689565</v>
+        <v>16.68000030517578</v>
       </c>
       <c r="E12">
-        <v>142.8035278320312</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>181.4961066283612</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="G12">
-        <v>142.8035278320312</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="H12">
-        <v>193969420</v>
+        <v>49999519</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>54913368</v>
@@ -1607,22 +1541,22 @@
         <v>43555</v>
       </c>
       <c r="D13">
-        <v>1096.205709613841</v>
+        <v>13.5</v>
       </c>
       <c r="E13">
-        <v>1205.027587890625</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="F13">
-        <v>1294.880514908153</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>1035.305392413072</v>
+        <v>11.25</v>
       </c>
       <c r="H13">
-        <v>104878138</v>
+        <v>49999519</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>41809901</v>
@@ -1705,22 +1639,22 @@
         <v>43646</v>
       </c>
       <c r="D14">
-        <v>40544.09822043826</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="E14">
-        <v>38831.5703125</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F14">
-        <v>40715.35101123209</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="G14">
-        <v>37975.30635853087</v>
+        <v>9.600000381469728</v>
       </c>
       <c r="H14">
-        <v>5876745450</v>
+        <v>49999519</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>46237677</v>
@@ -1800,22 +1734,22 @@
         <v>43738</v>
       </c>
       <c r="D15">
-        <v>60.76406463044493</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="E15">
-        <v>59.60836791992188</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>61.14327406172586</v>
+        <v>6.75</v>
       </c>
       <c r="G15">
-        <v>56.1412984537168</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="H15">
-        <v>229140423</v>
+        <v>49999519</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>25226681</v>
@@ -1895,22 +1829,22 @@
         <v>43830</v>
       </c>
       <c r="D16">
-        <v>222.8461507933775</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E16">
-        <v>219.044937133789</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F16">
-        <v>252.7807083626373</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="G16">
-        <v>203.3649307879864</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="H16">
-        <v>80995217</v>
+        <v>49999519</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>32599748</v>
@@ -1993,22 +1927,22 @@
         <v>43921</v>
       </c>
       <c r="D17">
-        <v>12.41129859768217</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="E17">
-        <v>16.23237037658691</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="F17">
-        <v>17.16704825563687</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="G17">
-        <v>12.05887897968325</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="H17">
-        <v>1299391231</v>
+        <v>49999519</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>26066038</v>
@@ -2091,22 +2025,22 @@
         <v>44012</v>
       </c>
       <c r="D18">
-        <v>970.3393129824782</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="E18">
-        <v>1088.628295898438</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="F18">
-        <v>1118.200541627427</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="G18">
-        <v>950.0083940437976</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="H18">
-        <v>1333460157</v>
+        <v>49999519</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>23100394</v>
@@ -2189,22 +2123,22 @@
         <v>44104</v>
       </c>
       <c r="D19">
-        <v>12.7733873356874</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="E19">
-        <v>15.52035236358643</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="F19">
-        <v>17.30587870681586</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="G19">
-        <v>12.68182262753309</v>
+        <v>2.970000028610229</v>
       </c>
       <c r="H19">
-        <v>4500000193</v>
+        <v>49999519</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>28337198</v>
@@ -2302,22 +2236,22 @@
         <v>44196</v>
       </c>
       <c r="D20">
-        <v>32.50755730601569</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E20">
-        <v>31.25653076171875</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="F20">
-        <v>32.99459606093095</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="G20">
-        <v>30.77904021483708</v>
+        <v>3.930000066757202</v>
       </c>
       <c r="H20">
-        <v>219937482</v>
+        <v>49999519</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>36099619</v>
@@ -2415,22 +2349,22 @@
         <v>44286</v>
       </c>
       <c r="D21">
-        <v>2516.34996159507</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>2790.17041015625</v>
+        <v>6.75</v>
       </c>
       <c r="F21">
-        <v>2807.159270103477</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>2503.838146397838</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>913159452</v>
+        <v>49999519</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>87222046</v>
@@ -2528,22 +2462,22 @@
         <v>44377</v>
       </c>
       <c r="D22">
-        <v>40.06459571156605</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="E22">
-        <v>40.04537963867188</v>
+        <v>4.75</v>
       </c>
       <c r="F22">
-        <v>40.5353766696543</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>36.25990124070713</v>
+        <v>4.340000152587891</v>
       </c>
       <c r="H22">
-        <v>219937482</v>
+        <v>49999519</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>79258620</v>
@@ -2641,22 +2575,22 @@
         <v>44469</v>
       </c>
       <c r="D23">
-        <v>51.72000122070312</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E23">
-        <v>45.22999954223633</v>
+        <v>2.819999933242798</v>
       </c>
       <c r="F23">
-        <v>53.2400016784668</v>
+        <v>4.25</v>
       </c>
       <c r="G23">
-        <v>43.54000091552734</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="H23">
-        <v>134598631</v>
+        <v>49999519</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>47402311</v>
@@ -2757,22 +2691,22 @@
         <v>44561</v>
       </c>
       <c r="D24">
-        <v>98.06110899770088</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="E24">
-        <v>84.43734741210938</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="F24">
-        <v>98.06110899770088</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="G24">
-        <v>80.56356001156674</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>49999519</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>31404181</v>
@@ -2873,22 +2807,22 @@
         <v>44651</v>
       </c>
       <c r="D25">
-        <v>564.8420934999623</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="E25">
-        <v>567.5840454101562</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="F25">
-        <v>568.4980293802209</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="G25">
-        <v>487.1534560444658</v>
+        <v>0.6620000004768372</v>
       </c>
       <c r="H25">
-        <v>275900103</v>
+        <v>49999519</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>17809022</v>
@@ -2989,22 +2923,22 @@
         <v>44742</v>
       </c>
       <c r="D26">
-        <v>990.9535599144536</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="E26">
-        <v>932.830322265625</v>
+        <v>1.179999947547913</v>
       </c>
       <c r="F26">
-        <v>1065.275076908038</v>
+        <v>1.179999947547913</v>
       </c>
       <c r="G26">
-        <v>932.830322265625</v>
+        <v>0.7829999923706055</v>
       </c>
       <c r="H26">
-        <v>1333460157</v>
+        <v>49999519</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>13293217</v>
@@ -3105,22 +3039,22 @@
         <v>44834</v>
       </c>
       <c r="D27">
-        <v>3829.951036061672</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="E27">
-        <v>3718.19677734375</v>
+        <v>0.975000023841858</v>
       </c>
       <c r="F27">
-        <v>4026.941593801738</v>
+        <v>1.789999961853027</v>
       </c>
       <c r="G27">
-        <v>3570.453859038701</v>
+        <v>0.9710000157356262</v>
       </c>
       <c r="H27">
-        <v>933160187</v>
+        <v>49999519</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>27393602</v>
@@ -3221,22 +3155,22 @@
         <v>44926</v>
       </c>
       <c r="D28">
-        <v>17.67499923706055</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="E28">
-        <v>19.1200008392334</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="F28">
-        <v>19.76000022888184</v>
+        <v>1.618000030517578</v>
       </c>
       <c r="G28">
-        <v>17.08499908447266</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="H28">
-        <v>795535712</v>
+        <v>49999519</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>19486157</v>
@@ -3337,22 +3271,22 @@
         <v>45016</v>
       </c>
       <c r="D29">
-        <v>4646.163088703966</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="E29">
-        <v>4397.0390625</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="F29">
-        <v>4647.12125803552</v>
+        <v>2.059999942779541</v>
       </c>
       <c r="G29">
-        <v>4224.568582820331</v>
+        <v>1.419999957084656</v>
       </c>
       <c r="H29">
-        <v>933160187</v>
+        <v>49999519</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>26345953</v>
@@ -3453,22 +3387,22 @@
         <v>45107</v>
       </c>
       <c r="D30">
-        <v>299.8867087280755</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="E30">
-        <v>279.6763610839844</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="F30">
-        <v>311.3327623979251</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>274.7053735580706</v>
+        <v>0.959999978542328</v>
       </c>
       <c r="H30">
-        <v>193969420</v>
+        <v>49999519</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>21074131</v>
@@ -3569,22 +3503,22 @@
         <v>45199</v>
       </c>
       <c r="D31">
-        <v>1366.269412157012</v>
+        <v>0.9100000262260436</v>
       </c>
       <c r="E31">
-        <v>1400.426147460938</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="F31">
-        <v>1722.475366040805</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="G31">
-        <v>1356.510344927319</v>
+        <v>0.8550000190734863</v>
       </c>
       <c r="H31">
-        <v>134011000</v>
+        <v>49999519</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>21297641</v>
@@ -3685,22 +3619,22 @@
         <v>45291</v>
       </c>
       <c r="D32">
-        <v>124.5980016318655</v>
+        <v>1.580000042915344</v>
       </c>
       <c r="E32">
-        <v>132.1493988037109</v>
+        <v>1.25</v>
       </c>
       <c r="F32">
-        <v>136.1187273141222</v>
+        <v>1.679000020027161</v>
       </c>
       <c r="G32">
-        <v>122.5649354352075</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="H32">
-        <v>229140423</v>
+        <v>49999519</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>37861298</v>
@@ -3801,22 +3735,22 @@
         <v>45382</v>
       </c>
       <c r="D33">
-        <v>4156.728619089413</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E33">
-        <v>4553.76318359375</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="F33">
-        <v>5096.40944657156</v>
+        <v>1.330000042915344</v>
       </c>
       <c r="G33">
-        <v>3750.957352676668</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="H33">
-        <v>175134528</v>
+        <v>49999519</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>31117111</v>
@@ -3914,22 +3848,22 @@
         <v>45473</v>
       </c>
       <c r="D34">
-        <v>2890.935410112718</v>
+        <v>0.8190000057220459</v>
       </c>
       <c r="E34">
-        <v>2691.009033203125</v>
+        <v>0.75</v>
       </c>
       <c r="F34">
-        <v>3014.889763796666</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="G34">
-        <v>2519.072349060875</v>
+        <v>0.7229999899864197</v>
       </c>
       <c r="H34">
-        <v>104878138</v>
+        <v>49999519</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>22012737</v>
@@ -4030,22 +3964,22 @@
         <v>45565</v>
       </c>
       <c r="D35">
-        <v>31.23959479848472</v>
+        <v>0.9700000286102296</v>
       </c>
       <c r="E35">
-        <v>28.76222801208496</v>
+        <v>0.9700000286102296</v>
       </c>
       <c r="F35">
-        <v>31.50219696309808</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="G35">
-        <v>28.63340577082776</v>
+        <v>0.8470000028610229</v>
       </c>
       <c r="H35">
-        <v>1299391231</v>
+        <v>49999519</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>30503761</v>
@@ -4146,22 +4080,22 @@
         <v>45657</v>
       </c>
       <c r="D36">
-        <v>2476.994723535176</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="E36">
-        <v>2384.00341796875</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="F36">
-        <v>2758.415779854624</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="G36">
-        <v>2325.761495008725</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="H36">
-        <v>175134528</v>
+        <v>49999519</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>25472267</v>
@@ -4262,22 +4196,22 @@
         <v>45747</v>
       </c>
       <c r="D37">
-        <v>3590.70430246099</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="E37">
-        <v>3714.694091796875</v>
+        <v>0.6240000128746033</v>
       </c>
       <c r="F37">
-        <v>3714.694091796875</v>
+        <v>0.9200000166893004</v>
       </c>
       <c r="G37">
-        <v>3048.748932944461</v>
+        <v>0.395000010728836</v>
       </c>
       <c r="H37">
-        <v>913159452</v>
+        <v>49999519</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>26239333</v>
@@ -4378,22 +4312,22 @@
         <v>45838</v>
       </c>
       <c r="D38">
-        <v>2937</v>
+        <v>0.6919999718666077</v>
       </c>
       <c r="E38">
-        <v>3025</v>
+        <v>0.7820000052452087</v>
       </c>
       <c r="F38">
-        <v>3125</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="G38">
-        <v>2890</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="H38">
-        <v>52985470</v>
+        <v>49999519</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>33791437</v>
